--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1997F6F0-29EE-48C9-BE8B-E669FEDF5605}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE1C5E5-D358-4646-B933-B093678A11D5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="fluttre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="536">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2097,6 +2097,46 @@
   </si>
   <si>
     <t>الدرس 10.4</t>
+  </si>
+  <si>
+    <t>استخدام القيمة المدخله في مربع الحوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  String cc="";</t>
+  </si>
+  <si>
+    <t>تضع فاريبول فاضي</t>
+  </si>
+  <si>
+    <t>final myController = TextEditingController();</t>
+  </si>
+  <si>
+    <t>ثما نضع فاريبول قيمته ودجت التحكم بنص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myfun(){
+    cc=myController.text;
+  }
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextField(
+              controller: myController,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وهذ العنصر الي داخل تكست فيلد
+خاص بتحكم بنص يصسر ربط بينه وبين الفاليبول </t>
+  </si>
+  <si>
+    <t>الفونكشن ذي تربط الفاريبول حق التكس مع فاريبول
+ التحكم
+بنص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Text("الاسم: $cc  ",style: TextStyle(fontSize: 27),)</t>
+  </si>
+  <si>
+    <t>تضع فاريبول التكست في الودجت حق التكست</t>
   </si>
 </sst>
 </file>
@@ -2324,17 +2364,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2343,12 +2389,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2672,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView rightToLeft="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2684,10 +2724,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2783,11 +2823,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -2820,11 +2860,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2851,10 +2891,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -2913,10 +2953,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -2951,10 +2991,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -2973,10 +3013,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3026,10 +3066,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3106,11 +3146,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3168,11 +3208,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3218,11 +3258,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3249,11 +3289,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3320,10 +3360,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -3365,11 +3405,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3404,11 +3444,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -3451,11 +3491,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -3482,11 +3522,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -3521,11 +3561,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -3544,11 +3584,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3584,11 +3624,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -3631,11 +3671,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="22" t="s">
+      <c r="A160" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -3670,11 +3710,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="22" t="s">
+      <c r="A166" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -3709,11 +3749,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="22" t="s">
+      <c r="A172" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3756,11 +3796,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -3784,11 +3824,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="19" t="s">
+      <c r="A186" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -3842,11 +3882,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -3873,11 +3913,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -3912,11 +3952,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -3935,11 +3975,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -3985,7 +4025,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="20" t="s">
+      <c r="B217" s="22" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3993,7 +4033,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="20"/>
+      <c r="B218" s="22"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4033,11 +4073,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="19" t="s">
+      <c r="A225" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4112,11 +4152,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="22" t="s">
+      <c r="A237" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4191,11 +4231,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="19" t="s">
+      <c r="A248" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4214,11 +4254,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="19" t="s">
+      <c r="A253" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4245,11 +4285,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="19" t="s">
+      <c r="A258" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4276,16 +4316,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="19" t="s">
+      <c r="A263" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="19"/>
+      <c r="B263" s="20"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="22" t="s">
+      <c r="A264" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B264" s="22"/>
+      <c r="B264" s="21"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4294,7 +4334,7 @@
       <c r="B265" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="C265" s="22" t="s">
         <v>506</v>
       </c>
     </row>
@@ -4305,7 +4345,7 @@
       <c r="B266" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C266" s="26"/>
+      <c r="C266" s="23"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4314,7 +4354,7 @@
       <c r="B267" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C267" s="26"/>
+      <c r="C267" s="23"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -4325,21 +4365,21 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="27"/>
-      <c r="B270" s="27"/>
-      <c r="C270" s="27"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="19"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="27"/>
-      <c r="B271" s="27"/>
-      <c r="C271" s="27"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="19" t="s">
+      <c r="A277" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
@@ -4390,6 +4430,7 @@
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A206:C206"/>
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A1:B1"/>
@@ -4400,7 +4441,9 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="A134:C134"/>
     <mergeCell ref="A115:C115"/>
@@ -4412,9 +4455,6 @@
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A263:B263"/>
     <mergeCell ref="A277:C277"/>
     <mergeCell ref="A258:C258"/>
@@ -4436,10 +4476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4458,11 +4498,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -4537,11 +4577,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -4657,11 +4697,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -4704,11 +4744,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -4783,11 +4823,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -4795,11 +4835,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -4898,11 +4938,11 @@
       <c r="B66" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -4913,24 +4953,24 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
     </row>
     <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -4957,11 +4997,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -4980,11 +5020,11 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -5003,11 +5043,11 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -5026,11 +5066,11 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
@@ -5073,11 +5113,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -5112,11 +5152,11 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
     </row>
     <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -5135,11 +5175,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
     </row>
     <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5155,11 +5195,11 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -5192,11 +5232,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -5242,11 +5282,11 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -5280,28 +5320,76 @@
         <v>490</v>
       </c>
     </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A87:C87"/>
+  <mergeCells count="21">
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A125:C125"/>
     <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A74:C74"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE1C5E5-D358-4646-B933-B093678A11D5}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4406168E-989B-4EA5-A023-37934C8586A1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="586">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -1572,14 +1572,8 @@
     print(ff );</t>
   </si>
   <si>
-    <t>لتنفيذ كود على مجموعة عناصر</t>
-  </si>
-  <si>
     <t xml:space="preserve"> List  fahad = [ 12, 11, 55];
 fahad.forEach( (item) {print("ali"); } );</t>
-  </si>
-  <si>
-    <t>لتكرار الكود على عدد العناصر</t>
   </si>
   <si>
     <t>لاخذ كامل المساحة حق الشاشة</t>
@@ -2096,9 +2090,6 @@
     <t>راجع 160</t>
   </si>
   <si>
-    <t>الدرس 10.4</t>
-  </si>
-  <si>
     <t>استخدام القيمة المدخله في مربع الحوار</t>
   </si>
   <si>
@@ -2137,13 +2128,216 @@
   </si>
   <si>
     <t>تضع فاريبول التكست في الودجت حق التكست</t>
+  </si>
+  <si>
+    <t>إضافة عنصر جديد في اليست واستخدامة</t>
+  </si>
+  <si>
+    <t>String vc="";</t>
+  </si>
+  <si>
+    <t>nweTask(){
+  nn.add(Bb(titl: vc, hh: false),);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحط فونكشن لزيادة عدد عناصر اليست </t>
+  </si>
+  <si>
+    <t>تحط فاريبول استرنق فاضي</t>
+  </si>
+  <si>
+    <t>myfun(){
+    vc=myController.text;
+  }</t>
+  </si>
+  <si>
+    <t>تحط فونكشن الي فيها الكونترول</t>
+  </si>
+  <si>
+    <t>showDialog(   )</t>
+  </si>
+  <si>
+    <t>صناعة صفحة اثناء الضغط صغيره</t>
+  </si>
+  <si>
+    <t>Dialog(   )</t>
+  </si>
+  <si>
+    <t>بدل الكونتيرا اذا في</t>
+  </si>
+  <si>
+    <t>داخل showDialog(   )</t>
+  </si>
+  <si>
+    <t>backgroundColor: Colors.amber ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shape: 
+RoundedRectangleBorder(borderRadius: BorderRadius.circular(20) ),</t>
+  </si>
+  <si>
+    <t>شكل زوايا الصفحه</t>
+  </si>
+  <si>
+    <t>child:</t>
+  </si>
+  <si>
+    <t>تأخذ عنصر الابن</t>
+  </si>
+  <si>
+    <t>لتكرار الكود على عدد العناصر
+ويظهر قيمة رقم</t>
+  </si>
+  <si>
+    <t>لتنفيذ كود على مجموعة عناصر
+يضهر ليست</t>
+  </si>
+  <si>
+    <t>List nn = [
+  Bb(titl: "aaaaa",hh: true)
+];</t>
+  </si>
+  <si>
+    <t>هذ اليست و العناصر الي داخل اليست هي 
+titl  و hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int fahad=0;</t>
+  </si>
+  <si>
+    <t>تسوي فاريبول قيمتة صفر</t>
+  </si>
+  <si>
+    <t>وتحط اليست في دالة فور ايش</t>
+  </si>
+  <si>
+    <t>nn.forEach((e) {}</t>
+  </si>
+  <si>
+    <t>nn.forEach((e) { 
+if (e.hh){fahad++;}
+});</t>
+  </si>
+  <si>
+    <t>وداخل الفور ايش تحط معادلة الايف
+وتعني اذا كل عنصر من عناصر اليست
+وداخل العناصر عنصر hh 
+قيمتة ترو عندها زيد العنصر fahad بمقدار 1</t>
+  </si>
+  <si>
+    <t>int ali(){
+  int fahad=0;
+nn.forEach((e) { 
+if (e.hh){fahad++;}
+});
+  return fahad;
+}</t>
+  </si>
+  <si>
+    <t>وبعدها احفظ قيمة fahad في داخل اسم الفونكشن
+يصير اذا استدعيت الفونكشن تطلع قيمة fahad</t>
+  </si>
+  <si>
+    <t>لحساب عدد العناصر الي داخل عناصر اليست اليست                     راجع سطر 64</t>
+  </si>
+  <si>
+    <t>استدعاء كلاس مع المتغيرات</t>
+  </si>
+  <si>
+    <t>اول شي تقص الاكواد من الصفحه الام ثم تفتح صفحه 
+جديد وتلصقها</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وتختار الخيار الاستندر </t>
+  </si>
+  <si>
+    <t>const MyWidget({super.key});</t>
+  </si>
+  <si>
+    <t>وتحذف الكونست هذا</t>
+  </si>
+  <si>
+    <t>MyWidget(),</t>
+  </si>
+  <si>
+    <t>وتحط اسم الكلاس الي في الصفحه الفرعيه 
+وتحط مكان الاكواد الي قصيتها</t>
+  </si>
+  <si>
+    <t>Padding(
+            padding: const EdgeInsets.all(8.0),
+            child: Center(
+              child: Text(
+                "${ali()}/${nn.length}",
+                style: TextStyle(fontSize: 44),
+              ),
+            ),
+          ) ;</t>
+  </si>
+  <si>
+    <t>Text(
+                "${aaa}/${bbb}",</t>
+  </si>
+  <si>
+    <t>ثما تحسب عدد المتغيرات الي معادلاتها موجوده في الصفحه
+الام  ولدينا هنا 2 متغيرات ومعادلاتها في الصفحه الام</t>
+  </si>
+  <si>
+    <t>Text(
+               "${ali()}/${nn.length}"</t>
+  </si>
+  <si>
+    <t>الان نقوم بتغير أسماء المتغيرات في الصفحه الفرعية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final int aaa;
+   final int bbb;</t>
+  </si>
+  <si>
+    <t>ونضع لها فاريبول في الصفحه الفرعية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MyWidget(
+            aaa: nn.length,
+            bbb: ali(),
+         ),</t>
+  </si>
+  <si>
+    <t>ونذهب الى الصفحه الام ونعرفها داخل كلاس 
+حقها</t>
+  </si>
+  <si>
+    <t>import 'widget/Padding.dart';</t>
+  </si>
+  <si>
+    <t>نربط الصفحه الفرية برئيسية</t>
+  </si>
+  <si>
+    <t>const
+ MyWidget({super.key, required this.aaa,required this.bbb});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ونروح للصفحه الفرعية ونطلب تشغيل  المتغيرات </t>
+  </si>
+  <si>
+    <t>لاضافة لون يتغير على حسب المتغير حقه</t>
+  </si>
+  <si>
+    <t>Text(
+                "${aaa}/${bbb}",
+                style: TextStyle(fontSize: 44,
+                color:(aaa==bbb)?Colors.green:Colors.red),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2227,6 +2421,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2254,7 +2453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2303,12 +2502,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2389,6 +2599,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2702,7 +2918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2712,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView rightToLeft="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2791,7 +3007,7 @@
     </row>
     <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -3251,10 +3467,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3324,7 +3540,7 @@
         <v>286</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.3">
@@ -3368,13 +3584,13 @@
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C109" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -3812,15 +4028,15 @@
     </row>
     <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4097,18 +4313,18 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4145,10 +4361,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4286,33 +4502,33 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4323,106 +4539,146 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B264" s="21"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C266" s="23"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C267" s="23"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
+      <c r="A270" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B270" s="28"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
+      <c r="A271" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>541</v>
+      </c>
       <c r="C271" s="19"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>508</v>
-      </c>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="A279" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="A270:C270"/>
     <mergeCell ref="A225:C225"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A237:C237"/>
@@ -4456,7 +4712,7 @@
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A194:C194"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A279:C279"/>
     <mergeCell ref="A258:C258"/>
     <mergeCell ref="A248:C248"/>
     <mergeCell ref="A253:C253"/>
@@ -4476,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4918,15 +5174,15 @@
         <v>400</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>403</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -4954,421 +5210,602 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
     </row>
     <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B75" s="22"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
     </row>
     <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
     </row>
     <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B145" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+    </row>
+    <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>535</v>
+      <c r="B151" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+    </row>
+    <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+    </row>
+    <row r="162" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+    </row>
+    <row r="173" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A172:C172"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A139:C139"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="431" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4406168E-989B-4EA5-A023-37934C8586A1}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061A5DC7-27C3-4DEB-AEA9-BD899AE02E1A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="614">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2331,6 +2331,108 @@
                 "${aaa}/${bbb}",
                 style: TextStyle(fontSize: 44,
                 color:(aaa==bbb)?Colors.green:Colors.red),</t>
+  </si>
+  <si>
+    <t>ListView(   )</t>
+  </si>
+  <si>
+    <t>padding: const EdgeInsets.all(22),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Container(
+            height: 300,
+            child: ListView(</t>
+  </si>
+  <si>
+    <t>داخل الكونتيرا
+او زايز بوكس مع الارتفاع</t>
+  </si>
+  <si>
+    <t>لاضافة مسافة خارجية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> children: [</t>
+  </si>
+  <si>
+    <t>لصناعة قائمة من الاسكرول في داخلها ودجت كثيره عددها محدود</t>
+  </si>
+  <si>
+    <t>ListView.builder()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Container(
+            height: 150,
+            child: ListView.builder(</t>
+  </si>
+  <si>
+    <t>لصناعة قائمة من الاسكرول في داخلها ودجت كثيره عددها غير محدود</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemCount: 3,</t>
+  </si>
+  <si>
+    <t>العداد حق عدد الودجت التي تريد صنعها تلقائيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemBuilder: (BuildContext context, int index) {
+                  return Container();</t>
+  </si>
+  <si>
+    <t>وهذا الكود لتكرار الودجت الي تحطها بعد return</t>
+  </si>
+  <si>
+    <t>استخدام الودجت ListView.builder() مع اليست لصنع ودجت بعدد اليست</t>
+  </si>
+  <si>
+    <t>List nn = [
+     Bb(titl: vc, hh: false),
+];</t>
+  </si>
+  <si>
+    <t>اول شي تحط اليست</t>
+  </si>
+  <si>
+    <t>Container(
+                height: 600,
+                child: ListView.builder(</t>
+  </si>
+  <si>
+    <t>وبعدين تحط الكونتيرا مع الهايد والشيلدرن حقها
+ListView.builder()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemCount: nn.length,</t>
+  </si>
+  <si>
+    <t>والعداد حقها هو عناصر اليست</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemBuilder: (BuildContext context, int index) {
+                      return Fahad(</t>
+  </si>
+  <si>
+    <t>ثما تفعل index وبعد return
+تحط الكلاس او الودجت</t>
+  </si>
+  <si>
+    <t>Fahad(
+                          vartitle: nn[index].titl, done: nn[index].hh);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وداخل الكلاس </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vartitle: nn[index].titl, done: nn[index].hh)</t>
+  </si>
+  <si>
+    <t>ثما تأخذ المتغيرات الي جاية من الصفحه الفرعية 
+وتعرفها 
+مثل vartitle فتعرها على انها اليست nn
+وindex هو العنصر الي داخله مجموعة عناصر
+ثما عده تختار العنصر المرادtitl</t>
+  </si>
+  <si>
+    <t>الدرس 10.11</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2577,6 +2679,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,26 +2700,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2926,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277"/>
+    <sheetView rightToLeft="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2940,10 +3045,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3039,11 +3144,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3076,11 +3181,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3107,10 +3212,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3169,10 +3274,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3207,10 +3312,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="25"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3229,10 +3334,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3282,10 +3387,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3362,11 +3467,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3424,11 +3529,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3474,11 +3579,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3505,11 +3610,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3576,10 +3681,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -3621,11 +3726,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3660,11 +3765,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -3707,11 +3812,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -3738,11 +3843,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="20" t="s">
+      <c r="A134" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -3777,11 +3882,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -3800,11 +3905,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3840,11 +3945,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -3887,11 +3992,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -3926,11 +4031,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -3965,11 +4070,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4012,11 +4117,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4040,11 +4145,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="20" t="s">
+      <c r="A186" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4098,11 +4203,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="24" t="s">
+      <c r="A194" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4129,11 +4234,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4168,11 +4273,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4191,11 +4296,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="24"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4241,7 +4346,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="22" t="s">
+      <c r="B217" s="26" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4249,7 +4354,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="22"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4289,11 +4394,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4368,11 +4473,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="21" t="s">
+      <c r="A237" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="25"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4447,11 +4552,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="24"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4470,11 +4575,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="20" t="s">
+      <c r="A253" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4501,11 +4606,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="20" t="s">
+      <c r="A258" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="B258" s="20"/>
-      <c r="C258" s="20"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4532,16 +4637,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="20" t="s">
+      <c r="A263" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="20"/>
+      <c r="B263" s="24"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="21" t="s">
+      <c r="A264" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B264" s="21"/>
+      <c r="B264" s="25"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4550,7 +4655,7 @@
       <c r="B265" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="C265" s="26" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4561,7 +4666,7 @@
       <c r="B266" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C266" s="23"/>
+      <c r="C266" s="29"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4570,7 +4675,7 @@
       <c r="B267" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C267" s="23"/>
+      <c r="C267" s="29"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -4581,11 +4686,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="26" t="s">
+      <c r="A270" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="B270" s="28"/>
-      <c r="C270" s="27"/>
+      <c r="B270" s="22"/>
+      <c r="C270" s="23"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -4635,11 +4740,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="20" t="s">
+      <c r="A279" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="B279" s="20"/>
-      <c r="C279" s="20"/>
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4676,17 +4781,89 @@
         <v>521</v>
       </c>
     </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="B285" s="24"/>
+      <c r="C285" s="24"/>
+    </row>
+    <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="B290" s="24"/>
+      <c r="C290" s="24"/>
+    </row>
+    <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="B217:B218"/>
+  <mergeCells count="42">
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A1:B1"/>
@@ -4700,24 +4877,16 @@
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="C265:C267"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -4732,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4754,11 +4923,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -4833,11 +5002,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -4953,11 +5122,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5000,11 +5169,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5079,11 +5248,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5091,11 +5260,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5194,11 +5363,11 @@
       <c r="B66" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -5209,24 +5378,24 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
     </row>
     <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="22"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -5253,11 +5422,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -5276,11 +5445,11 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -5299,11 +5468,11 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
     </row>
     <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -5322,11 +5491,11 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
@@ -5369,11 +5538,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -5408,11 +5577,11 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
     </row>
     <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -5431,11 +5600,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
     </row>
     <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5451,11 +5620,11 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -5488,11 +5657,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -5538,11 +5707,11 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -5577,11 +5746,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -5624,11 +5793,11 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
@@ -5655,11 +5824,11 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="20" t="s">
+      <c r="A154" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
     </row>
     <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
@@ -5678,7 +5847,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="20" t="s">
         <v>557</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -5702,11 +5871,11 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
     </row>
     <row r="162" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -5789,31 +5958,80 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
     </row>
     <row r="173" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>585</v>
       </c>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
+    </row>
+    <row r="177" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A111:C111"/>
+  <mergeCells count="26">
+    <mergeCell ref="A176:C176"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A91:C91"/>
@@ -5827,6 +6045,18 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061A5DC7-27C3-4DEB-AEA9-BD899AE02E1A}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B592A9B-5F04-4FED-8CAB-DBD80F3FEE8B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="633">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2434,12 +2434,140 @@
   <si>
     <t>الدرس 10.11</t>
   </si>
+  <si>
+    <t>دالة  GestureDetector(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GestureDetector()</t>
+  </si>
+  <si>
+    <t>وتستخدم لكي تجعل الوجدت قابله للضغط بكامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> onTap: ( ) { },</t>
+  </si>
+  <si>
+    <t>عنصر الضغط</t>
+  </si>
+  <si>
+    <t>استخدام دالة  GestureDetector(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GestureDetector(
+      onTap: ( ) {  },
+      child: FractionallySizedBox(</t>
+  </si>
+  <si>
+    <t>تضع الدالة التي تري ان تصح قابل للضغط</t>
+  </si>
+  <si>
+    <t>class _FhadState extends State&lt;Fhad&gt; {
+  change(int ds) {
+    setState(() {
+      nn[ds].hh = !nn[ds].hh;
+    });
+  }
+  @override</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">تضع الفونكشن في هذا المكان علشان لما تسوي
+ لها تحديث اثناء الضغط تقبل 
+وتحط الكود الي هو 
+اليست nn وتفتح [ds]الي تحط فيه رقم العنصر
+وتحط فاريبول علشان نستخدمه في عدد العناصر اليست
+وبعدين يساوي وبعدين علامة  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>علشان اذا ضغط
+مره ثانيه يعكس النتيجه وتحط 
+اليست nn وبعدها  [ds] وتحط نفس الفاريبول
+واخر شي حط الفاريبول في اقواس الفونكشن
+ونحط قيمته في الاستدعاء حق الفونكشن</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> GestureDetector(
+      onTap: ( ) { myfun(iii); },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تروح للصفحه الفرعية وتحط الفونكشن مع القيمه حقت ds
+طبعا القيمه هي فاريبول ثاني </t>
+  </si>
+  <si>
+    <t>final int iii;</t>
+  </si>
+  <si>
+    <t>ولازم تعرف الفاريبول الثاني لى انه رقم صحيح</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Fahad({required this.vartitle,required
+ this.done,required this.myfun,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required this.iii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>});</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">وكمان تسويله إعادة التشغيل </t>
+  </si>
+  <si>
+    <t>Fahad(
+                        vartitle: nn[index].titl,
+                        done: nn[index].hh,
+                        myfun: change,
+                        iii:index
+                      );</t>
+  </si>
+  <si>
+    <t>واخيييييرا تروح للصفحه الام وكلاس الي فيه
+ اسدعاء الكلاس وتعرف الفاريبول الي فيه الفونكشن 
+وتحط  index وهو يعني كل عناصر اليست</t>
+  </si>
+  <si>
+    <t>الدرس10.12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2527,6 +2655,19 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2620,7 +2761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2682,14 +2823,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2700,17 +2835,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3031,10 +3175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290:C290"/>
+    <sheetView rightToLeft="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3144,11 +3288,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3181,11 +3325,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3212,10 +3356,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3274,10 +3418,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="23"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3312,10 +3456,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3334,10 +3478,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3387,10 +3531,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3467,11 +3611,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3529,11 +3673,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3579,11 +3723,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3610,11 +3754,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3681,10 +3825,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -3726,11 +3870,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3765,11 +3909,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -3812,11 +3956,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -3843,11 +3987,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -3882,11 +4026,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -3905,11 +4049,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -3945,11 +4089,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -3992,11 +4136,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4031,11 +4175,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4070,11 +4214,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4117,11 +4261,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4145,11 +4289,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4203,11 +4347,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="28" t="s">
+      <c r="A194" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4234,11 +4378,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="24" t="s">
+      <c r="A200" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4273,11 +4417,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4296,11 +4440,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="24" t="s">
+      <c r="A211" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="24"/>
-      <c r="C211" s="24"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4346,7 +4490,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="24" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4354,7 +4498,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="26"/>
+      <c r="B218" s="24"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4394,11 +4538,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4473,11 +4617,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="25"/>
-      <c r="C237" s="25"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4552,11 +4696,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="24" t="s">
+      <c r="A248" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="24"/>
-      <c r="C248" s="24"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4575,11 +4719,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="24" t="s">
+      <c r="A253" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="24"/>
-      <c r="C253" s="24"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4606,11 +4750,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B258" s="24"/>
-      <c r="C258" s="24"/>
+      <c r="B258" s="22"/>
+      <c r="C258" s="22"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4637,16 +4781,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="24" t="s">
+      <c r="A263" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="24"/>
+      <c r="B263" s="22"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="B264" s="25"/>
+      <c r="B264" s="23"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4655,7 +4799,7 @@
       <c r="B265" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C265" s="26" t="s">
+      <c r="C265" s="24" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4666,7 +4810,7 @@
       <c r="B266" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C266" s="29"/>
+      <c r="C266" s="25"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4675,7 +4819,7 @@
       <c r="B267" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C267" s="29"/>
+      <c r="C267" s="25"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -4686,11 +4830,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="21" t="s">
+      <c r="A270" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="B270" s="22"/>
-      <c r="C270" s="23"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="29"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -4740,11 +4884,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="24" t="s">
+      <c r="A279" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="B279" s="24"/>
-      <c r="C279" s="24"/>
+      <c r="B279" s="22"/>
+      <c r="C279" s="22"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4782,11 +4926,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="24" t="s">
+      <c r="A285" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="B285" s="24"/>
-      <c r="C285" s="24"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="22"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -4795,7 +4939,7 @@
       <c r="B286" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C286" s="30" t="s">
+      <c r="C286" s="21" t="s">
         <v>589</v>
       </c>
     </row>
@@ -4813,11 +4957,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="24" t="s">
+      <c r="A290" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="B290" s="24"/>
-      <c r="C290" s="24"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="22"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -4843,27 +4987,48 @@
         <v>599</v>
       </c>
     </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
+  <mergeCells count="43">
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A1:B1"/>
@@ -4877,15 +5042,26 @@
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A263:B263"/>
   </mergeCells>
   <hyperlinks>
@@ -4901,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4923,11 +5099,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5002,11 +5178,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -5122,11 +5298,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5169,11 +5345,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5248,11 +5424,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5260,11 +5436,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5363,11 +5539,11 @@
       <c r="B66" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
     </row>
     <row r="71" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -5378,24 +5554,24 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
     </row>
     <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -5422,11 +5598,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -5445,11 +5621,11 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
     </row>
     <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -5468,11 +5644,11 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
     </row>
     <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -5491,11 +5667,11 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
@@ -5538,11 +5714,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -5577,11 +5753,11 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
     </row>
     <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -5600,11 +5776,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
     </row>
     <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -5620,11 +5796,11 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
@@ -5657,11 +5833,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -5707,11 +5883,11 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -5746,11 +5922,11 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -5793,11 +5969,11 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
     </row>
     <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
@@ -5824,11 +6000,11 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
     </row>
     <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
@@ -5871,11 +6047,11 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
     </row>
     <row r="162" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
@@ -5958,11 +6134,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
     </row>
     <row r="173" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
@@ -5970,13 +6146,13 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="s">
+      <c r="A176" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="B176" s="24"/>
-      <c r="C176" s="24"/>
-    </row>
-    <row r="177" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+    </row>
+    <row r="177" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>601</v>
       </c>
@@ -5984,7 +6160,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>603</v>
       </c>
@@ -5992,7 +6168,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>605</v>
       </c>
@@ -6000,7 +6176,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>607</v>
       </c>
@@ -6008,7 +6184,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>609</v>
       </c>
@@ -6016,7 +6192,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>611</v>
       </c>
@@ -6024,23 +6200,121 @@
         <v>612</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>613</v>
       </c>
     </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+    </row>
+    <row r="192" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="146" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A82:C82"/>
@@ -6052,11 +6326,6 @@
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B592A9B-5F04-4FED-8CAB-DBD80F3FEE8B}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81744BCB-3C84-478D-8636-B78D25B32509}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="645">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -1579,9 +1579,6 @@
     <t>لاخذ كامل المساحة حق الشاشة</t>
   </si>
   <si>
-    <t>size: 50</t>
-  </si>
-  <si>
     <t>الحجم</t>
   </si>
   <si>
@@ -2560,7 +2557,62 @@
 وتحط  index وهو يعني كل عناصر اليست</t>
   </si>
   <si>
-    <t>الدرس10.12</t>
+    <t xml:space="preserve">  iconSize: 50,</t>
+  </si>
+  <si>
+    <t>فونكشن للحذف عناصر اليست</t>
+  </si>
+  <si>
+    <t>delet(int bb) {
+    setState(() {
+      nn.remove(nn[bb]);
+    });</t>
+  </si>
+  <si>
+    <t>delet(iii);</t>
+  </si>
+  <si>
+    <t>وفي نفس الاستدعا حق الفونكشن نحط داخل الاقواس 
+فاريبول يعبر عن قيمة الفاريبول الأول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ونعرف الفاريبول الثاني على انه رقم في 
+الصفحه الفرعية ولاكن اذا في فاريبول من اول قيمتة int
+فلا داعي لتعريفه بل انسخه وضعه داخل اقواس 
+استدعاء الفونكشن </t>
+  </si>
+  <si>
+    <t>required this.iii</t>
+  </si>
+  <si>
+    <t>ولاتنسى هذه الاكواد الي هي تشغيل الاكواد في الصفحه
+الفرعية</t>
+  </si>
+  <si>
+    <t>final Function delet;</t>
+  </si>
+  <si>
+    <t>تعريف الفونكشن في الصفحه الفرعية</t>
+  </si>
+  <si>
+    <t>تسوي فونكشن في الصفحه الرئيسية ونكتب التالي
+اليست nn ونحط دالة الحذف ونفتح القوس 
+ونحط اليست مع الفاريبول جديد[bb]
+ونفس الفاريبول الجديد نحطه كمان في اقواس 
+الفونكشن</t>
+  </si>
+  <si>
+    <t>fahadd(){
+    setState(() {
+      nn.removeRange(0,nn.length);
+    });
+  }</t>
+  </si>
+  <si>
+    <t>لمسح كل اليست</t>
+  </si>
+  <si>
+    <t>الدرس 10.13</t>
   </si>
 </sst>
 </file>
@@ -2826,11 +2878,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2838,23 +2887,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3177,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C298"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView rightToLeft="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3189,10 +3241,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3256,7 +3308,7 @@
     </row>
     <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -3288,11 +3340,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3325,11 +3377,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3356,10 +3408,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3418,10 +3470,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3456,10 +3508,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="30"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3478,10 +3530,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3531,10 +3583,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3611,11 +3663,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3673,11 +3725,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3716,18 +3768,18 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3754,11 +3806,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3825,21 +3877,21 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="22"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -3870,11 +3922,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3909,11 +3961,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -3956,11 +4008,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -3987,11 +4039,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4026,11 +4078,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4049,11 +4101,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4089,11 +4141,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
+      <c r="A153" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4136,11 +4188,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4175,11 +4227,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4214,11 +4266,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="23" t="s">
+      <c r="A172" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4261,11 +4313,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="22" t="s">
+      <c r="A179" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4277,23 +4329,23 @@
     </row>
     <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4347,11 +4399,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4378,11 +4430,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="22" t="s">
+      <c r="A200" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="28"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4417,11 +4469,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="22" t="s">
+      <c r="A206" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4440,11 +4492,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="22" t="s">
+      <c r="A211" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4490,7 +4542,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="23" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4498,7 +4550,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="24"/>
+      <c r="B218" s="23"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4538,11 +4590,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
+      <c r="B225" s="28"/>
+      <c r="C225" s="28"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4562,18 +4614,18 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4610,18 +4662,18 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="23" t="s">
+      <c r="A237" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="23"/>
-      <c r="C237" s="23"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4696,11 +4748,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="22" t="s">
+      <c r="A248" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4719,11 +4771,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="22" t="s">
+      <c r="A253" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4750,115 +4802,115 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
+      <c r="A258" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B258" s="28"/>
+      <c r="C258" s="28"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="22" t="s">
+      <c r="A263" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="22"/>
+      <c r="B263" s="28"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="B264" s="23"/>
+      <c r="A264" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="B264" s="30"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C265" s="24" t="s">
-        <v>504</v>
+      <c r="C265" s="23" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C266" s="25"/>
+      <c r="C266" s="24"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C267" s="25"/>
+        <v>500</v>
+      </c>
+      <c r="C267" s="24"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B268" s="3" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="B270" s="30"/>
-      <c r="C270" s="29"/>
+      <c r="A270" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B270" s="26"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="B271" s="19" t="s">
         <v>540</v>
-      </c>
-      <c r="B271" s="19" t="s">
-        <v>541</v>
       </c>
       <c r="C271" s="19"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>160</v>
@@ -4866,148 +4918,148 @@
     </row>
     <row r="274" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
+      <c r="A279" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>521</v>
-      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
+      <c r="A285" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285" s="28"/>
+      <c r="C285" s="28"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C286" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C286" s="21" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
+      <c r="A290" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>599</v>
-      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
+      <c r="A295" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B295" s="28"/>
+      <c r="C295" s="28"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -5029,6 +5081,13 @@
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A206:C206"/>
     <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A264:B264"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A1:B1"/>
@@ -5042,8 +5101,6 @@
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A211:C211"/>
@@ -5053,16 +5110,11 @@
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A264:B264"/>
     <mergeCell ref="C265:C267"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -5077,10 +5129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5088,6 +5140,7 @@
     <col min="1" max="1" width="39" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5099,11 +5152,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5178,11 +5231,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -5298,11 +5351,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5345,11 +5398,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5424,11 +5477,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5436,11 +5489,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5519,7 +5572,7 @@
         <v>400</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -5527,7 +5580,7 @@
         <v>401</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5539,11 +5592,11 @@
       <c r="B66" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
     </row>
     <row r="71" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -5554,678 +5607,678 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-    </row>
-    <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="B75" s="23"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
     </row>
     <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
+      <c r="A82" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
     </row>
     <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
+      <c r="A91" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B93" s="3" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="28" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B108" s="3" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="30" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
     </row>
     <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
+      <c r="A115" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
     </row>
     <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="28" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C122" s="1" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="30" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="30" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
     </row>
     <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
+      <c r="A139" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="28" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
     </row>
     <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
+      <c r="A154" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
     </row>
     <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A157" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
+      <c r="A161" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
     </row>
     <row r="162" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="30" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
+      <c r="A176" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
     </row>
     <row r="177" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="28" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -6237,80 +6290,131 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
+      <c r="A191" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B191" s="28"/>
+      <c r="C191" s="28"/>
     </row>
     <row r="192" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="146" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="146" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="B193" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="B193" s="31" t="s">
+    </row>
+    <row r="194" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B194" s="3" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="B196" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="28" t="s">
         <v>632</v>
       </c>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+    </row>
+    <row r="200" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A125:C125"/>
     <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A172:C172"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A91:C91"/>
@@ -6319,13 +6423,16 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A111:C111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81744BCB-3C84-478D-8636-B78D25B32509}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54B072B-67B6-4A18-87CD-A00CF0B27785}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="649">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2612,7 +2612,31 @@
     <t>لمسح كل اليست</t>
   </si>
   <si>
-    <t>الدرس 10.13</t>
+    <t>أولا تصنع ليست وتحتها تحط فاريبول جديد تحط اسم اليست وبعدها دالة map وتفح اقواس مرتين داخل بعض
+وتحط داخل الاقواس حرف او كلمة وهي رمز لكل عنصر داخل اليست (  (e)=&gt; ثما تحط الحرف الي يمثل عناصر اليست
+وتحط الكود الي ينفذ بعدد العناصر وفي النهاية الناتج حيكون ليست وليس قيمة</t>
+  </si>
+  <si>
+    <t>دوال التكرار</t>
+  </si>
+  <si>
+    <t>List myList = ["HTML", "CSS", "JavaScript" ];
+for (int i=0; i &lt; myList.length; i++) {
+var item = myList[i];
+print(item);
+}</t>
+  </si>
+  <si>
+    <t>قاعدة الفور
+أولا اليست ثما تضع كلمة فور وقوس وداخل القوس 
+تضع القاعدة التي هي فاريبول بقيمة صفر
+ثما الفاريبول الي بقيمة صفر مع رمز الأكبر من 
+عدد عناصر اليست وبعدها الفاريبول الي قيمة صفر 
+عنصر الزياده  ثما تفتح الكارلي بركز لي بداخل 
+الاكواد المراد تنفيذها</t>
+  </si>
+  <si>
+    <t>الدرس 11.1</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2744,6 +2768,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,7 +2843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2881,6 +2911,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2907,6 +2940,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3241,10 +3277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3340,11 +3376,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3377,11 +3413,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3408,10 +3444,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3470,10 +3506,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3508,10 +3544,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3530,10 +3566,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3583,10 +3619,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="28"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3663,11 +3699,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3725,11 +3761,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3775,11 +3811,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3806,11 +3842,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3877,10 +3913,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="28"/>
+      <c r="B108" s="29"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -3922,11 +3958,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -3961,11 +3997,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -4008,11 +4044,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -4039,11 +4075,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4078,11 +4114,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="28" t="s">
+      <c r="A141" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4101,11 +4137,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4141,11 +4177,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="29" t="s">
+      <c r="A153" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4188,11 +4224,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4227,11 +4263,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4266,11 +4302,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4313,11 +4349,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="28" t="s">
+      <c r="A179" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4341,11 +4377,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="28" t="s">
+      <c r="A186" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4399,11 +4435,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="29" t="s">
+      <c r="A194" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4430,11 +4466,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="28" t="s">
+      <c r="A200" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4469,11 +4505,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="28" t="s">
+      <c r="A206" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4492,11 +4528,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="28" t="s">
+      <c r="A211" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4542,7 +4578,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" s="24" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4550,7 +4586,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="23"/>
+      <c r="B218" s="24"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4590,11 +4626,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="28" t="s">
+      <c r="A225" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4669,11 +4705,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="30" t="s">
+      <c r="A237" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="30"/>
-      <c r="C237" s="30"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="31"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4748,11 +4784,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="28" t="s">
+      <c r="A248" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="28"/>
-      <c r="C248" s="28"/>
+      <c r="B248" s="29"/>
+      <c r="C248" s="29"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4771,11 +4807,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="28" t="s">
+      <c r="A253" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4802,11 +4838,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="28" t="s">
+      <c r="A258" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
+      <c r="B258" s="29"/>
+      <c r="C258" s="29"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4833,16 +4869,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="28" t="s">
+      <c r="A263" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="28"/>
+      <c r="B263" s="29"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="30" t="s">
+      <c r="A264" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="B264" s="30"/>
+      <c r="B264" s="31"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4851,7 +4887,7 @@
       <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C265" s="23" t="s">
+      <c r="C265" s="24" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4862,7 +4898,7 @@
       <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C266" s="24"/>
+      <c r="C266" s="25"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4871,7 +4907,7 @@
       <c r="B267" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C267" s="24"/>
+      <c r="C267" s="25"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -4882,11 +4918,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="B270" s="26"/>
-      <c r="C270" s="27"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="28"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -4936,11 +4972,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="28" t="s">
+      <c r="A279" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
+      <c r="B279" s="29"/>
+      <c r="C279" s="29"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4978,11 +5014,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="28" t="s">
+      <c r="A285" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="B285" s="28"/>
-      <c r="C285" s="28"/>
+      <c r="B285" s="29"/>
+      <c r="C285" s="29"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -5009,11 +5045,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="28" t="s">
+      <c r="A290" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
+      <c r="B290" s="29"/>
+      <c r="C290" s="29"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -5040,11 +5076,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="28" t="s">
+      <c r="A295" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="B295" s="28"/>
-      <c r="C295" s="28"/>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -5103,6 +5139,11 @@
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
     <mergeCell ref="A211:C211"/>
     <mergeCell ref="A153:C153"/>
     <mergeCell ref="A172:C172"/>
@@ -5110,11 +5151,6 @@
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A194:C194"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -5129,10 +5165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5152,11 +5188,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5231,11 +5267,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -5351,11 +5387,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5398,11 +5434,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5477,11 +5513,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5489,11 +5525,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5568,871 +5604,946 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="B64" s="33"/>
+    </row>
+    <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+    </row>
+    <row r="69" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>647</v>
+      </c>
+    </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-    </row>
-    <row r="71" spans="1:3" ht="98" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+    </row>
+    <row r="87" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-    </row>
-    <row r="75" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+    </row>
+    <row r="91" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="B75" s="23"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-    </row>
-    <row r="78" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="95" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="96" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="30" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-    </row>
-    <row r="88" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+    </row>
+    <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="105" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="30" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+    </row>
+    <row r="108" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+    <row r="109" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="30" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-    </row>
-    <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-    </row>
-    <row r="112" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>453</v>
-      </c>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+    </row>
+    <row r="128" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-    </row>
-    <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+    </row>
+    <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="B117" s="3" t="s">
+    <row r="133" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="28" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-    </row>
-    <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+    </row>
+    <row r="136" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+    <row r="137" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="98" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="138" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="30" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="B125" s="30"/>
-      <c r="C125" s="30"/>
-    </row>
-    <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+    </row>
+    <row r="142" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+    <row r="144" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+    <row r="145" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="30" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-    </row>
-    <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+    </row>
+    <row r="149" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+    <row r="150" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-    </row>
-    <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-    </row>
-    <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
-        <v>556</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-    </row>
-    <row r="162" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>569</v>
-      </c>
+      <c r="A161" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
     </row>
     <row r="166" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>571</v>
+        <v>534</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="A170" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
     </row>
     <row r="171" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>582</v>
+        <v>551</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-    </row>
-    <row r="173" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-    </row>
-    <row r="177" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A173" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+    </row>
+    <row r="178" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+    </row>
+    <row r="189" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+    </row>
+    <row r="193" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+    <row r="196" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+    <row r="197" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="198" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="1" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="28" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="28" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-    </row>
-    <row r="192" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
+    </row>
+    <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="146" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+    <row r="209" spans="1:4" ht="146" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B193" s="22" t="s">
+      <c r="B209" s="22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+    <row r="210" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+    <row r="212" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+    <row r="213" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B213" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="28" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-    </row>
-    <row r="200" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
+    </row>
+    <row r="216" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B216" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+    <row r="218" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+    <row r="219" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="220" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B206" s="1" t="s">
-        <v>644</v>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A172:C172"/>
+  <mergeCells count="31">
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A155:C155"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A103:C103"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A188:C188"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
